--- a/biology/Médecine/Charles_Angibaud/Charles_Angibaud.xlsx
+++ b/biology/Médecine/Charles_Angibaud/Charles_Angibaud.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Charles Angibaud, né à Saintes dans la seconde moitié du XVIIe siècle et mort à Londres dans la première moitié du XVIIIe siècle, est l'apothicaire particulier du roi de France, Louis XIV avant de devenir un réfugié huguenot en Angleterre.
-Charles Angibaud devint l'apothicaire royal du roi Louis XIV. Le Roi-Soleil lui offrit un mortier de 48cm de diamètre et de 36cm de haut, fait d'un alliage d'étain et de cuivre, avec la mention gravée dessus « CHARLE ANGIBAUD Me APPre[1] ET ORDINAIRE DV ROY A PARIS 1678[2] ».
+Charles Angibaud devint l'apothicaire royal du roi Louis XIV. Le Roi-Soleil lui offrit un mortier de 48cm de diamètre et de 36cm de haut, fait d'un alliage d'étain et de cuivre, avec la mention gravée dessus « CHARLE ANGIBAUD Me APPre ET ORDINAIRE DV ROY A PARIS 1678 ».
 En 1681, Charles Angibaud, averti de l'intention du roi de France de révoquer l'édit de Nantes, se réfugie avec femme et enfants en Angleterre et s'installe à Londres où il intègre la Société d'apothicaire londonienne (Society of Apothecaries).
 </t>
         </is>
